--- a/src/main/resources/excel/skill/damageSkill.xlsx
+++ b/src/main/resources/excel/skill/damageSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5763C28-8CC5-4C95-AA17-96F515D26C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A6DA40-A302-495F-94B3-03F979E1CB6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4896" yWindow="1248" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/excel/skill/damageSkill.xlsx
+++ b/src/main/resources/excel/skill/damageSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A6DA40-A302-495F-94B3-03F979E1CB6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B42FFFF-1003-4752-BD52-E3CAF5530D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4896" yWindow="1248" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2676" yWindow="1692" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>重力一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物普通攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -474,6 +478,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excel/skill/damageSkill.xlsx
+++ b/src/main/resources/excel/skill/damageSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B42FFFF-1003-4752-BD52-E3CAF5530D28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDBF7B3-1B81-4001-8312-8202164E99E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2676" yWindow="1692" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9564" yWindow="2232" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>

--- a/src/main/resources/excel/skill/damageSkill.xlsx
+++ b/src/main/resources/excel/skill/damageSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDBF7B3-1B81-4001-8312-8202164E99E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6740F229-B491-4411-ABB5-1D022144A0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9564" yWindow="2232" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9264" yWindow="1500" windowWidth="11892" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,54 @@
   </si>
   <si>
     <t>怪物普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰箭，造成伤害，并且使敌人无法行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗魔球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害，并且禁锢敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射出一直毒箭，敌人会受到毒液的持续伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩爆裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心格2格以内距离的敌人将会受到魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackAnimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requireMagicPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,19 +445,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="8" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="40.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,19 +471,31 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -443,19 +506,31 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -466,38 +541,202 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>201</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/main/resources/excel/skill/damageSkill.xlsx
+++ b/src/main/resources/excel/skill/damageSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6740F229-B491-4411-ABB5-1D022144A0CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB32597-67AB-4EB8-9817-EE209224686F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9264" yWindow="1500" windowWidth="11892" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="948" yWindow="1548" windowWidth="14832" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>buffId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scopeOfInfluence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒殺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接秒殺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -456,11 +468,11 @@
     <col min="4" max="4" width="12.5546875" customWidth="1"/>
     <col min="5" max="5" width="16.21875" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="8" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="40.21875" customWidth="1"/>
+    <col min="7" max="9" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="40.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,16 +498,19 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -521,16 +536,19 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -556,16 +574,19 @@
         <v>0</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -591,16 +612,19 @@
         <v>30</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>8</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -626,16 +650,19 @@
         <v>40</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>8</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -661,16 +688,19 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>21</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -696,47 +726,91 @@
         <v>20</v>
       </c>
       <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>10000</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>201</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>20</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/main/resources/excel/skill/damageSkill.xlsx
+++ b/src/main/resources/excel/skill/damageSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\skill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB32597-67AB-4EB8-9817-EE209224686F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1609FBFD-1DB0-4657-80C8-D0822FC4FF80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="1548" windowWidth="14832" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2376" yWindow="636" windowWidth="19008" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,14 @@
   </si>
   <si>
     <t>直接秒殺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物寒冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物使用寒冰箭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -814,6 +822,44 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
